--- a/SJTUThesis-master/excel/rand.xlsx
+++ b/SJTUThesis-master/excel/rand.xlsx
@@ -212,7 +212,7 @@
             <c:v>HDD</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -221,8 +221,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -231,6 +231,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -285,7 +286,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -294,8 +295,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -304,6 +305,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -338,7 +340,7 @@
             <c:v>bio-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -347,8 +349,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -357,6 +359,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -391,7 +394,7 @@
             <c:v>request-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -400,16 +403,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -447,16 +449,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="261055856"/>
-        <c:axId val="261056416"/>
+        <c:axId val="127774192"/>
+        <c:axId val="127774752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="261055856"/>
+        <c:axId val="127774192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -464,7 +480,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -477,7 +493,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>块大小</a:t>
                 </a:r>
               </a:p>
@@ -497,7 +513,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -535,7 +551,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -550,7 +566,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261056416"/>
+        <c:crossAx val="127774752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,26 +574,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261056416"/>
+        <c:axId val="127774752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -585,7 +587,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -598,10 +600,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>IOPS</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -619,7 +621,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -641,8 +643,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -666,7 +674,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261055856"/>
+        <c:crossAx val="127774192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -679,7 +687,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -716,7 +724,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -774,7 +782,7 @@
             <c:v>HDD</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -783,8 +791,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -793,6 +801,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -847,7 +856,7 @@
             <c:v>flashcache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -856,8 +865,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -866,6 +875,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -900,7 +910,7 @@
             <c:v>bio-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -909,8 +919,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -919,6 +929,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -953,7 +964,7 @@
             <c:v>request-qscache</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -962,16 +973,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1009,16 +1019,30 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263081584"/>
-        <c:axId val="263082144"/>
+        <c:axId val="127779232"/>
+        <c:axId val="127779792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263081584"/>
+        <c:axId val="127779232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1026,7 +1050,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1039,7 +1063,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN"/>
                   <a:t>块大小</a:t>
                 </a:r>
               </a:p>
@@ -1059,7 +1083,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1097,7 +1121,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1112,7 +1136,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263082144"/>
+        <c:crossAx val="127779792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,26 +1144,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263082144"/>
+        <c:axId val="127779792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1147,7 +1157,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1160,10 +1170,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>IOPS</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1181,7 +1191,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1203,8 +1213,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1228,7 +1244,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263081584"/>
+        <c:crossAx val="127779232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1241,7 +1257,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1278,7 +1294,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1390,7 +1406,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1401,7 +1417,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1424,18 +1440,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1447,7 +1463,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1455,11 +1471,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1491,35 +1507,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1531,30 +1557,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1576,15 +1606,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1599,10 +1627,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -1610,67 +1674,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1683,54 +1808,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1740,8 +1828,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1751,66 +1839,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1819,14 +1848,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1840,7 +1869,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1856,8 +1885,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1873,6 +1902,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1880,20 +1920,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1904,7 +1938,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1927,18 +1961,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1950,7 +1984,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1958,11 +1992,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1994,35 +2028,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2034,30 +2078,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2079,15 +2127,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2102,10 +2148,46 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -2113,67 +2195,128 @@
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2186,54 +2329,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2243,8 +2349,8 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2254,66 +2360,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2322,14 +2369,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2343,7 +2390,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2359,8 +2406,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2376,6 +2423,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2383,14 +2441,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2728,7 +2780,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
